--- a/Baumanagement/print/bill.xlsx
+++ b/Baumanagement/print/bill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39528\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WestfaliaBPE\PycharmProjects\Baumanagement\Baumanagement\print\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6BEFB4-0C08-4273-B20B-5AED640E0D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA553CA-8446-41A6-A283-48409343C653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B86374E-E14B-493E-8CF6-B7A023CFD5C1}"/>
+    <workbookView xWindow="11745" yWindow="2685" windowWidth="43170" windowHeight="23445" xr2:uid="{4B86374E-E14B-493E-8CF6-B7A023CFD5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,16 +82,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -99,12 +120,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -419,70 +534,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98154F37-87EE-4BAB-B1B2-466FB927B335}">
-  <dimension ref="B2:B15"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>